--- a/src/CADUSD/CADUSD_KNN_Train/CADUSD KNN_train_output.xlsx
+++ b/src/CADUSD/CADUSD_KNN_Train/CADUSD KNN_train_output.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,204 +419,6 @@
         <v>0.03155066287307128</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.001382535527758781</v>
-      </c>
-      <c r="C4">
-        <v>0.03007262162169209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.001354949744562215</v>
-      </c>
-      <c r="C5">
-        <v>0.02949105481818735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.001335201519682026</v>
-      </c>
-      <c r="C6">
-        <v>0.02908881399314421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.001326713267937954</v>
-      </c>
-      <c r="C7">
-        <v>0.02890135075611079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.001320103219039314</v>
-      </c>
-      <c r="C8">
-        <v>0.02873136667032533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.001315177422073072</v>
-      </c>
-      <c r="C9">
-        <v>0.02864036201720368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.001314163885274228</v>
-      </c>
-      <c r="C10">
-        <v>0.0286126105674174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.0013127923689147</v>
-      </c>
-      <c r="C11">
-        <v>0.02856835497688323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.001310689799938339</v>
-      </c>
-      <c r="C12">
-        <v>0.02852521985221366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.00130916951611547</v>
-      </c>
-      <c r="C13">
-        <v>0.02848782044473135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.001307721186799621</v>
-      </c>
-      <c r="C14">
-        <v>0.02844568595377266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.001306891521441549</v>
-      </c>
-      <c r="C15">
-        <v>0.02841897532566866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.001306530685262504</v>
-      </c>
-      <c r="C16">
-        <v>0.02840313805906464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.001305994610565489</v>
-      </c>
-      <c r="C17">
-        <v>0.02839587425856677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.001305201747646148</v>
-      </c>
-      <c r="C18">
-        <v>0.02838768886956129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.001304676114186914</v>
-      </c>
-      <c r="C19">
-        <v>0.02837717006680979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.001304603503619515</v>
-      </c>
-      <c r="C20">
-        <v>0.0283738343828083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.001304947655510531</v>
-      </c>
-      <c r="C21">
-        <v>0.0283780651982564</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
